--- a/Excel/Enemy.xlsx
+++ b/Excel/Enemy.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a7105\UnityProject\Touhou-Tactics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8C0C9-9BD6-4847-B7E4-C4FD58DEF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DB42E-AC04-4848-B528-A93741A1D78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>Wolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙包走路菇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,33 +571,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1106D05-9E06-4527-8CCE-F70AFB87F848}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="W11" sqref="A1:W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" customWidth="1"/>
-    <col min="14" max="15" width="11.54296875" customWidth="1"/>
-    <col min="16" max="16" width="8.1796875" customWidth="1"/>
-    <col min="17" max="17" width="38.453125" customWidth="1"/>
-    <col min="18" max="20" width="7.1796875" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" customWidth="1"/>
-    <col min="22" max="23" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" customWidth="1"/>
+    <col min="17" max="17" width="38.44140625" customWidth="1"/>
+    <col min="18" max="20" width="7.21875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" customWidth="1"/>
+    <col min="22" max="23" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1164,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1303,6 +1307,77 @@
         <v>3</v>
       </c>
       <c r="W10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>-1</v>
       </c>
     </row>

--- a/Excel/Enemy.xlsx
+++ b/Excel/Enemy.xlsx
@@ -118,7 +118,7 @@
     <t xml:space="preserve">山豬</t>
   </si>
   <si>
-    <t xml:space="preserve">MountainPig</t>
+    <t xml:space="preserve">Boar</t>
   </si>
   <si>
     <t xml:space="preserve">擁有肥厚的脂肪，可以有效抵禦魔法攻擊</t>
@@ -133,13 +133,13 @@
     <t xml:space="preserve">擁有強悍的攻擊力，擅長近身戰</t>
   </si>
   <si>
-    <t xml:space="preserve">猴子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手很靈巧，會丟擲石頭攻擊。</t>
+    <t xml:space="preserve">豪豬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcupine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背上長滿了刺，會發射刺進行遠程攻擊</t>
   </si>
   <si>
     <t xml:space="preserve">FarCombatAI</t>
@@ -283,20 +283,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,805 +501,805 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="6.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="K2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="S2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="0" t="n">
+      <c r="K5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="K6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" s="0" t="n">
+      <c r="V6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="G7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="0" t="n">
+      <c r="K8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="R8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="K9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="R9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="G10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="0" t="n">
+      <c r="K10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="C11" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="K11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="S11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="1" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Excel/Enemy.xlsx
+++ b/Excel/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Boar</t>
   </si>
   <si>
-    <t xml:space="preserve">擁有肥厚的脂肪，可以有效抵禦魔法攻擊</t>
+    <t xml:space="preserve">血量比較高，防禦普通</t>
   </si>
   <si>
     <t xml:space="preserve">狼</t>
@@ -130,7 +130,10 @@
     <t xml:space="preserve">Wolf</t>
   </si>
   <si>
-    <t xml:space="preserve">擁有強悍的攻擊力，擅長近身戰</t>
+    <t xml:space="preserve">性格狡詐，會針對弱者攻擊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinHpAI</t>
   </si>
   <si>
     <t xml:space="preserve">豪豬</t>
@@ -743,7 +746,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>120</v>
@@ -755,7 +758,7 @@
         <v>120</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>120</v>
@@ -868,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V5" s="1" t="n">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>350</v>
@@ -918,16 +921,16 @@
         <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1" t="n">
         <v>9</v>
@@ -939,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V6" s="1" t="n">
         <v>2</v>
@@ -953,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>350</v>
@@ -989,16 +992,16 @@
         <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" s="1" t="n">
         <v>9</v>
@@ -1010,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V7" s="1" t="n">
         <v>8</v>
@@ -1024,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1000</v>
@@ -1060,16 +1063,16 @@
         <v>23</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>-1</v>
@@ -1081,7 +1084,7 @@
         <v>-1</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>19</v>
@@ -1095,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>400</v>
@@ -1131,17 +1134,17 @@
         <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="R9" s="1" t="n">
         <v>-1</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>-1</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>1</v>
@@ -1166,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>350</v>
@@ -1202,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" s="1" t="n">
         <v>9</v>
@@ -1223,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>3</v>
@@ -1237,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>300</v>
